--- a/assets/excel/2021_4-1-6.xlsx
+++ b/assets/excel/2021_4-1-6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15-Uebergreifende-Analysen\Projekte\Integrationsmonitoring_2021\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A67D213-63E8-4109-98D1-9858DEB8FFE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DD0B4F-7E3C-45F6-809E-A4133F1B1C52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110" xr2:uid="{1B814798-4DC2-4D6F-863C-1DA0DC84084D}"/>
   </bookViews>
@@ -978,8 +978,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:H45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,7 +1774,7 @@
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:11" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" s="10" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="19" t="s">
         <v>111</v>
       </c>
